--- a/PCBA_caculator.xlsx
+++ b/PCBA_caculator.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Part price" sheetId="4" r:id="rId3"/>
     <sheet name="part cost template" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Part price'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>PCB cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C0805-1UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Price look</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1206-1N4007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,79 +183,242 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Alminium CAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTH-6x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206-1N4148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLD 572-573, IV 38-45, VF 2.0-2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLD 600-625, IV 100-150, VF 2.0-2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPX3819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC-Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V3 LDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V3 LDO AP2112K-3.3TRG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2N7002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470UF/16V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x5.4</t>
+  </si>
+  <si>
+    <t>10UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10UH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Inductor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A, not insulated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x2pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin header </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x1pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alminium CAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x5.4-10UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* R0805-1K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* R0805-10K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* R0805-4.7K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* C0805-1UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* C0805-0.1UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* C0805-10UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* LED0805-RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* AMS1117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTH-6x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pin header 1x2pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pin header 1x1pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206-1N4148</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD-Turtle Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WLD 572-573, IV 38-45, VF 2.0-2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WLD 600-625, IV 100-150, VF 2.0-2.3</t>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turtle Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Use-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Mutiply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Raw Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -327,6 +485,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -601,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,260 +962,608 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12">
+        <f>I5*H5</f>
+        <v>0.96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12">
+        <f>I10*H10</f>
+        <v>0.96</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12">
+        <f>I12*H12</f>
+        <v>9.6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1">
+      <c r="F14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12">
+        <f>I15*H15</f>
+        <v>1.44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="12">
         <v>1.5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="12">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:G23">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="2" max="4" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1046,35 +1571,41 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2" t="e">
-        <f>VLOOKUP(B2,'Part price'!A:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
-        <f>C2/100*D2</f>
-        <v>#N/A</v>
+      <c r="E2">
+        <f>VLOOKUP(B2,'Part price'!A:Z,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <f>D2/100*E2</f>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
